--- a/EmailDetails.xlsx
+++ b/EmailDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liou\Documents\UiPath\UiPath-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{488ABB93-B256-4CE9-8853-0B540417D8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944D6073-28BF-4439-B6AC-C8CFD2CCF7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DED59434-A757-4FCD-8EF5-3BE5A6613702}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/EmailDetails.xlsx
+++ b/EmailDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liou\Documents\UiPath\UiPath-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944D6073-28BF-4439-B6AC-C8CFD2CCF7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B350D53-51AC-44C7-8A43-C92DC3425968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DED59434-A757-4FCD-8EF5-3BE5A6613702}"/>
+    <workbookView xWindow="2400" yWindow="380" windowWidth="15670" windowHeight="9700" xr2:uid="{DED59434-A757-4FCD-8EF5-3BE5A6613702}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>EmailType</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>jmleck04@gmail.com</t>
   </si>
   <si>
     <t>Subject</t>
@@ -438,7 +435,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,19 +450,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -473,16 +470,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -490,29 +487,29 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{D3A27F48-78D9-4720-9A02-09EE564D7A17}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{759B95F8-1D7E-49E8-B8C1-73481FCDA99B}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{5DD8BC12-7CCA-4795-BF0F-B08680558BF0}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{9DD75D30-EC06-46EA-979D-D8273093C725}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/EmailDetails.xlsx
+++ b/EmailDetails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liou\Documents\UiPath\UiPath-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B350D53-51AC-44C7-8A43-C92DC3425968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D3BB0B-1E96-44AA-A1B5-13D5C7E3BE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="380" windowWidth="15670" windowHeight="9700" xr2:uid="{DED59434-A757-4FCD-8EF5-3BE5A6613702}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DED59434-A757-4FCD-8EF5-3BE5A6613702}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>EmailType</t>
   </si>
@@ -70,6 +70,21 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>melvinngweixiang@gmail.com,2101000d@student.tp.edu.sg</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t>Testing4</t>
+  </si>
+  <si>
+    <t>Testing3</t>
   </si>
 </sst>
 </file>
@@ -432,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F099D4-DB81-45D5-812F-206597ED80E3}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -505,11 +520,58 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{D3A27F48-78D9-4720-9A02-09EE564D7A17}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{759B95F8-1D7E-49E8-B8C1-73481FCDA99B}"/>
     <hyperlink ref="C3" r:id="rId3" xr:uid="{9DD75D30-EC06-46EA-979D-D8273093C725}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{6D29A70C-5E1C-4DAB-92DE-03A5CEDC61D9}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{B37F5D15-5354-4ED1-AA49-F4B176D7825B}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{671A9AFD-4A89-44BF-8A9E-D0C0ADC676AD}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{F57F426A-F366-450C-A772-001F3F1CA83F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/EmailDetails.xlsx
+++ b/EmailDetails.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liou\Documents\UiPath\UiPath-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D3BB0B-1E96-44AA-A1B5-13D5C7E3BE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3DD808-1801-43A2-BDA0-468A6B8F9A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DED59434-A757-4FCD-8EF5-3BE5A6613702}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>EmailType</t>
   </si>
@@ -36,62 +37,83 @@
     <t>Content</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Receiver's Email Address</t>
+  </si>
+  <si>
+    <t>CC Email Address</t>
+  </si>
+  <si>
+    <t>Translate</t>
+  </si>
+  <si>
+    <t>melvinngweixiang@gmail.com</t>
+  </si>
+  <si>
+    <t>jmleck04@gmail.com</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Sample Content</t>
+  </si>
+  <si>
+    <t>2101000d@student.tp.edu.sg</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Receiver's Email Address</t>
-  </si>
-  <si>
-    <t>CC Email Address</t>
-  </si>
-  <si>
-    <t>Translate</t>
-  </si>
-  <si>
-    <t>melvinngweixiang@gmail.com</t>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>Test 4</t>
+  </si>
+  <si>
+    <t>Test 5</t>
+  </si>
+  <si>
+    <t>Testing 1</t>
+  </si>
+  <si>
+    <t>Testing 2</t>
+  </si>
+  <si>
+    <t>Testing 3</t>
+  </si>
+  <si>
+    <t>Testing 4</t>
+  </si>
+  <si>
+    <t>Testing 5</t>
   </si>
   <si>
     <t>Outlook</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>melvinngweixiang@gmail.com,2101000d@student.tp.edu.sg</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>Test4</t>
-  </si>
-  <si>
-    <t>Testing4</t>
-  </si>
-  <si>
-    <t>Testing3</t>
+    <t>2101000d@student.tp.edu.sg,jmleck04@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +123,19 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -129,9 +164,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -450,14 +486,14 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.90625" customWidth="1"/>
     <col min="2" max="2" width="28.453125" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="3" max="3" width="43.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -465,19 +501,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -485,39 +521,39 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -525,53 +561,138 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{2C9C966A-DE9E-4114-8AB9-312C007EE622}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{9EA7AAFB-2F36-4661-8BCF-0FB0A82091EE}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{A99227FF-C1E1-4B00-B977-4723FF8C3319}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{A8086350-15BA-4214-A6B9-CB3DBB76111C}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{8B63CCFB-3A79-4184-94AA-0587498BDF6B}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{5DB28F07-883F-4A46-A558-A327A42F878B}"/>
+    <hyperlink ref="C5:C6" r:id="rId7" display="2101000d@student.tp.edu.sg" xr:uid="{F26DC406-FC55-4350-A594-27C1507EE6A3}"/>
+    <hyperlink ref="C6" r:id="rId8" xr:uid="{43D7C0DD-A610-458F-8029-825DD7A2745A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803AA708-B758-4AF3-B0FC-E08B150932E4}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="1"/>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{D3A27F48-78D9-4720-9A02-09EE564D7A17}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{759B95F8-1D7E-49E8-B8C1-73481FCDA99B}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{9DD75D30-EC06-46EA-979D-D8273093C725}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{6D29A70C-5E1C-4DAB-92DE-03A5CEDC61D9}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{B37F5D15-5354-4ED1-AA49-F4B176D7825B}"/>
-    <hyperlink ref="C4" r:id="rId6" xr:uid="{671A9AFD-4A89-44BF-8A9E-D0C0ADC676AD}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{F57F426A-F366-450C-A772-001F3F1CA83F}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{1F7B865B-7260-4C7C-9853-A2CA18E0B29D}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{4F9BF330-4679-4566-A060-1873B96BC9B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
